--- a/dmsan/newgen/scores/Uganda/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/Uganda/sys_uncertainties.xlsx
@@ -32041,7 +32041,7 @@
         <v>15.73123070217525</v>
       </c>
       <c r="I10" t="n">
-        <v>15.69694499293629</v>
+        <v>15.69694499293628</v>
       </c>
     </row>
     <row r="11">

--- a/dmsan/newgen/scores/Uganda/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/Uganda/sys_uncertainties.xlsx
@@ -32773,25 +32773,25 @@
         <v>47.47629305365037</v>
       </c>
       <c r="C4" t="n">
-        <v>35.1264883582029</v>
+        <v>35.12648835820291</v>
       </c>
       <c r="D4" t="n">
-        <v>20.68890749429918</v>
+        <v>20.68890749429919</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2641293285980176</v>
+        <v>0.2633523916259884</v>
       </c>
       <c r="G4" t="n">
-        <v>6.566715016616151</v>
+        <v>6.561102074897203</v>
       </c>
       <c r="H4" t="n">
-        <v>11.52891569002043</v>
+        <v>11.49815743131954</v>
       </c>
       <c r="I4" t="n">
-        <v>93.65316768457197</v>
+        <v>93.43830466064523</v>
       </c>
     </row>
     <row r="5">
@@ -32811,16 +32811,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4864045665448258</v>
+        <v>0.4851224559824043</v>
       </c>
       <c r="G5" t="n">
-        <v>11.31496542718862</v>
+        <v>11.30400996845926</v>
       </c>
       <c r="H5" t="n">
-        <v>19.84065167112531</v>
+        <v>19.79034724362903</v>
       </c>
       <c r="I5" t="n">
-        <v>194.1343900827256</v>
+        <v>193.6721327722099</v>
       </c>
     </row>
     <row r="6">
@@ -32828,28 +32828,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>61.04945121479177</v>
+        <v>61.04945121479179</v>
       </c>
       <c r="C6" t="n">
         <v>38.56221258078127</v>
       </c>
       <c r="D6" t="n">
-        <v>31.34606021839426</v>
+        <v>31.34606021839425</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3620072947922705</v>
+        <v>0.3611447573752192</v>
       </c>
       <c r="G6" t="n">
-        <v>17.48324427636979</v>
+        <v>17.47614148680702</v>
       </c>
       <c r="H6" t="n">
-        <v>15.85711117001278</v>
+        <v>15.82068948101577</v>
       </c>
       <c r="I6" t="n">
-        <v>154.1975651710596</v>
+        <v>153.865238335148</v>
       </c>
     </row>
     <row r="7">
@@ -32860,7 +32860,7 @@
         <v>48.80116975325629</v>
       </c>
       <c r="C7" t="n">
-        <v>35.79091863136995</v>
+        <v>35.79091863136994</v>
       </c>
       <c r="D7" t="n">
         <v>24.07250941253632</v>
@@ -32869,16 +32869,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.327649974076958</v>
+        <v>0.3271750227521537</v>
       </c>
       <c r="G7" t="n">
-        <v>8.476197274321253</v>
+        <v>8.47274649566697</v>
       </c>
       <c r="H7" t="n">
-        <v>11.88353393814831</v>
+        <v>11.86765087556325</v>
       </c>
       <c r="I7" t="n">
-        <v>130.6043728896938</v>
+        <v>130.4458775909511</v>
       </c>
     </row>
     <row r="8">
@@ -32886,7 +32886,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>43.19456388433754</v>
+        <v>43.19456388433755</v>
       </c>
       <c r="C8" t="n">
         <v>39.41232002746161</v>
@@ -32898,16 +32898,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2119182261440144</v>
+        <v>0.2106413898244863</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8486116581575</v>
+        <v>11.83869627472954</v>
       </c>
       <c r="H8" t="n">
-        <v>9.148252408195471</v>
+        <v>9.096771340402727</v>
       </c>
       <c r="I8" t="n">
-        <v>84.17049345021906</v>
+        <v>83.75974403721109</v>
       </c>
     </row>
     <row r="9">
@@ -32918,25 +32918,25 @@
         <v>49.01105600812134</v>
       </c>
       <c r="C9" t="n">
-        <v>48.24635238813424</v>
+        <v>48.24635238813422</v>
       </c>
       <c r="D9" t="n">
-        <v>29.29319925865107</v>
+        <v>29.29319925865106</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3592359478246117</v>
+        <v>0.3578118475858322</v>
       </c>
       <c r="G9" t="n">
-        <v>10.97591807487412</v>
+        <v>10.96575315534195</v>
       </c>
       <c r="H9" t="n">
-        <v>12.66445245486666</v>
+        <v>12.61653942241138</v>
       </c>
       <c r="I9" t="n">
-        <v>123.2995739185352</v>
+        <v>122.873931988789</v>
       </c>
     </row>
     <row r="10">
@@ -32950,22 +32950,22 @@
         <v>29.75459136849363</v>
       </c>
       <c r="D10" t="n">
-        <v>23.53554004984084</v>
+        <v>23.53554004984083</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2557699195645408</v>
+        <v>0.2547914906359772</v>
       </c>
       <c r="G10" t="n">
-        <v>9.821838129806544</v>
+        <v>9.813945412578848</v>
       </c>
       <c r="H10" t="n">
-        <v>11.17013971500146</v>
+        <v>11.12943647716116</v>
       </c>
       <c r="I10" t="n">
-        <v>98.41056203303769</v>
+        <v>98.09197290011234</v>
       </c>
     </row>
     <row r="11">
@@ -32976,25 +32976,25 @@
         <v>62.21923488908034</v>
       </c>
       <c r="C11" t="n">
-        <v>61.94863909512524</v>
+        <v>61.94863909512526</v>
       </c>
       <c r="D11" t="n">
-        <v>47.18062148077626</v>
+        <v>47.18062148077627</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5803962504455635</v>
+        <v>0.5798667788421419</v>
       </c>
       <c r="G11" t="n">
-        <v>15.38155326225249</v>
+        <v>15.37721904767724</v>
       </c>
       <c r="H11" t="n">
-        <v>24.03071068298582</v>
+        <v>24.01014199845895</v>
       </c>
       <c r="I11" t="n">
-        <v>254.3272932879934</v>
+        <v>254.120256459107</v>
       </c>
     </row>
     <row r="12">
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2737806979800729</v>
+        <v>0.2726464695186304</v>
       </c>
       <c r="G12" t="n">
-        <v>10.17880576400805</v>
+        <v>10.17060493251034</v>
       </c>
       <c r="H12" t="n">
-        <v>10.50075017298424</v>
+        <v>10.4592398240387</v>
       </c>
       <c r="I12" t="n">
-        <v>98.79025662618977</v>
+        <v>98.44322569608453</v>
       </c>
     </row>
     <row r="13">
@@ -33031,7 +33031,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>55.61399868905328</v>
+        <v>55.61399868905327</v>
       </c>
       <c r="C13" t="n">
         <v>45.92715697944202</v>
@@ -33043,16 +33043,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3671815395885877</v>
+        <v>0.366188790632489</v>
       </c>
       <c r="G13" t="n">
-        <v>13.43441473151952</v>
+        <v>13.42720245447522</v>
       </c>
       <c r="H13" t="n">
-        <v>14.68662404652835</v>
+        <v>14.64887192426544</v>
       </c>
       <c r="I13" t="n">
-        <v>122.4273647606578</v>
+        <v>122.1403697592644</v>
       </c>
     </row>
     <row r="14">
@@ -33072,16 +33072,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3926080664841421</v>
+        <v>0.3920444005675718</v>
       </c>
       <c r="G14" t="n">
-        <v>7.663902704813657</v>
+        <v>7.659174736781825</v>
       </c>
       <c r="H14" t="n">
-        <v>15.47883518486378</v>
+        <v>15.45749833095099</v>
       </c>
       <c r="I14" t="n">
-        <v>132.1546187072308</v>
+        <v>131.987773577538</v>
       </c>
     </row>
     <row r="15">
@@ -33089,28 +33089,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.97789638681189</v>
+        <v>46.97789638681188</v>
       </c>
       <c r="C15" t="n">
         <v>50.33026397796599</v>
       </c>
       <c r="D15" t="n">
-        <v>24.21380911407706</v>
+        <v>24.21380911407705</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2607189700497755</v>
+        <v>0.2599702255190625</v>
       </c>
       <c r="G15" t="n">
-        <v>10.37147445755938</v>
+        <v>10.36440505634485</v>
       </c>
       <c r="H15" t="n">
-        <v>11.65723654274726</v>
+        <v>11.62621068198783</v>
       </c>
       <c r="I15" t="n">
-        <v>132.498769453992</v>
+        <v>132.1741929457375</v>
       </c>
     </row>
     <row r="16">
@@ -33118,10 +33118,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.92176618373928</v>
+        <v>58.92176618373929</v>
       </c>
       <c r="C16" t="n">
-        <v>33.37460064400998</v>
+        <v>33.37460064401</v>
       </c>
       <c r="D16" t="n">
         <v>30.21228552696875</v>
@@ -33130,16 +33130,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3667167102828578</v>
+        <v>0.3660746097343947</v>
       </c>
       <c r="G16" t="n">
-        <v>13.54871500156385</v>
+        <v>13.54310242479512</v>
       </c>
       <c r="H16" t="n">
-        <v>14.11641267905374</v>
+        <v>14.09236226851705</v>
       </c>
       <c r="I16" t="n">
-        <v>161.6878673051235</v>
+        <v>161.4263593033075</v>
       </c>
     </row>
     <row r="17">
@@ -33159,16 +33159,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.409268246673091</v>
+        <v>0.4087773279369777</v>
       </c>
       <c r="G17" t="n">
-        <v>9.902783006513815</v>
+        <v>9.898770727140846</v>
       </c>
       <c r="H17" t="n">
-        <v>17.21243068524946</v>
+        <v>17.19271934428573</v>
       </c>
       <c r="I17" t="n">
-        <v>130.699478035085</v>
+        <v>130.5633558736238</v>
       </c>
     </row>
     <row r="18">
@@ -33176,28 +33176,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>63.77843628954197</v>
+        <v>63.77843628954196</v>
       </c>
       <c r="C18" t="n">
         <v>38.8305959427779</v>
       </c>
       <c r="D18" t="n">
-        <v>23.98447628747516</v>
+        <v>23.98447628747515</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2949940746700314</v>
+        <v>0.2943266974978745</v>
       </c>
       <c r="G18" t="n">
-        <v>6.71364930092094</v>
+        <v>6.708274661271991</v>
       </c>
       <c r="H18" t="n">
-        <v>12.55065199129607</v>
+        <v>12.52469057984989</v>
       </c>
       <c r="I18" t="n">
-        <v>102.8929711771824</v>
+        <v>102.702548006999</v>
       </c>
     </row>
     <row r="19">
@@ -33217,16 +33217,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3130929228838076</v>
+        <v>0.3122818522540403</v>
       </c>
       <c r="G19" t="n">
-        <v>17.63036333257921</v>
+        <v>17.62314387521046</v>
       </c>
       <c r="H19" t="n">
-        <v>14.23245130609794</v>
+        <v>14.19705905992711</v>
       </c>
       <c r="I19" t="n">
-        <v>115.996296501574</v>
+        <v>115.7367464974814</v>
       </c>
     </row>
     <row r="20">
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>56.3109148955121</v>
+        <v>56.31091489551209</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36932182689971</v>
+        <v>47.36932182689969</v>
       </c>
       <c r="D20" t="n">
-        <v>23.76927439509418</v>
+        <v>23.76927439509417</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2775802770434929</v>
+        <v>0.2765102794043693</v>
       </c>
       <c r="G20" t="n">
-        <v>15.63542331063702</v>
+        <v>15.62700818067419</v>
       </c>
       <c r="H20" t="n">
-        <v>10.71322287020098</v>
+        <v>10.67446554658142</v>
       </c>
       <c r="I20" t="n">
-        <v>100.2987290084309</v>
+        <v>99.97646438707638</v>
       </c>
     </row>
     <row r="21">
@@ -33263,7 +33263,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.84697751954215</v>
+        <v>66.84697751954214</v>
       </c>
       <c r="C21" t="n">
         <v>58.60565469032003</v>
@@ -33275,16 +33275,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4144485957698362</v>
+        <v>0.4133812366480881</v>
       </c>
       <c r="G21" t="n">
-        <v>16.05122667820562</v>
+        <v>16.04184415325488</v>
       </c>
       <c r="H21" t="n">
-        <v>16.96338521228205</v>
+        <v>16.92137519842071</v>
       </c>
       <c r="I21" t="n">
-        <v>135.174481470392</v>
+        <v>134.86769627</v>
       </c>
     </row>
     <row r="22">
@@ -33304,16 +33304,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2250218112042251</v>
+        <v>0.2239501035635053</v>
       </c>
       <c r="G22" t="n">
-        <v>10.65142817065066</v>
+        <v>10.6428448152847</v>
       </c>
       <c r="H22" t="n">
-        <v>10.6108977967308</v>
+        <v>10.56342583306151</v>
       </c>
       <c r="I22" t="n">
-        <v>100.9638102651211</v>
+        <v>100.5596405234828</v>
       </c>
     </row>
     <row r="23">
@@ -33321,28 +33321,28 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>50.54183834519752</v>
+        <v>50.54183834519753</v>
       </c>
       <c r="C23" t="n">
-        <v>53.62964520208474</v>
+        <v>53.62964520208475</v>
       </c>
       <c r="D23" t="n">
-        <v>24.60018388438149</v>
+        <v>24.6001838843815</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3463094952915092</v>
+        <v>0.3456190708319297</v>
       </c>
       <c r="G23" t="n">
-        <v>14.98297590253542</v>
+        <v>14.97737752147589</v>
       </c>
       <c r="H23" t="n">
-        <v>12.95229724736959</v>
+        <v>12.92735493602165</v>
       </c>
       <c r="I23" t="n">
-        <v>137.3085835220931</v>
+        <v>137.0635753121645</v>
       </c>
     </row>
   </sheetData>
@@ -64356,25 +64356,25 @@
         <v>47.47629305365037</v>
       </c>
       <c r="C4" t="n">
-        <v>35.1264883582029</v>
+        <v>35.12648835820291</v>
       </c>
       <c r="D4" t="n">
-        <v>20.68890749429918</v>
+        <v>20.68890749429919</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2914444723447603</v>
+        <v>0.2906675353727311</v>
       </c>
       <c r="G4" t="n">
-        <v>7.273514862834671</v>
+        <v>7.267901921115721</v>
       </c>
       <c r="H4" t="n">
-        <v>11.78411814645624</v>
+        <v>11.75335988775535</v>
       </c>
       <c r="I4" t="n">
-        <v>94.56624656507437</v>
+        <v>94.35138354114763</v>
       </c>
     </row>
     <row r="5">
@@ -64394,16 +64394,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5120594244767049</v>
+        <v>0.5107773139142835</v>
       </c>
       <c r="G5" t="n">
-        <v>12.10803933917576</v>
+        <v>12.0970838804464</v>
       </c>
       <c r="H5" t="n">
-        <v>20.09572172695307</v>
+        <v>20.04541729945678</v>
       </c>
       <c r="I5" t="n">
-        <v>195.1215144716853</v>
+        <v>194.6592571611697</v>
       </c>
     </row>
     <row r="6">
@@ -64411,28 +64411,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>61.04945121479177</v>
+        <v>61.04945121479179</v>
       </c>
       <c r="C6" t="n">
         <v>38.56221258078127</v>
       </c>
       <c r="D6" t="n">
-        <v>31.34606021839426</v>
+        <v>31.34606021839425</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3891296240453482</v>
+        <v>0.388267086628297</v>
       </c>
       <c r="G6" t="n">
-        <v>18.16626527410151</v>
+        <v>18.15916248453874</v>
       </c>
       <c r="H6" t="n">
-        <v>16.101508688446</v>
+        <v>16.06508699944898</v>
       </c>
       <c r="I6" t="n">
-        <v>155.7659866949459</v>
+        <v>155.4336598590343</v>
       </c>
     </row>
     <row r="7">
@@ -64443,7 +64443,7 @@
         <v>48.80116975325629</v>
       </c>
       <c r="C7" t="n">
-        <v>35.79091863136995</v>
+        <v>35.79091863136994</v>
       </c>
       <c r="D7" t="n">
         <v>24.07250941253632</v>
@@ -64452,16 +64452,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3535814686411022</v>
+        <v>0.3531065173162979</v>
       </c>
       <c r="G7" t="n">
-        <v>9.295451729819012</v>
+        <v>9.292000951164731</v>
       </c>
       <c r="H7" t="n">
-        <v>12.14106111725894</v>
+        <v>12.12517805467387</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7808767838719</v>
+        <v>131.6223814851291</v>
       </c>
     </row>
     <row r="8">
@@ -64469,7 +64469,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>43.19456388433754</v>
+        <v>43.19456388433755</v>
       </c>
       <c r="C8" t="n">
         <v>39.41232002746161</v>
@@ -64481,16 +64481,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2389870720801063</v>
+        <v>0.2377102357605783</v>
       </c>
       <c r="G8" t="n">
-        <v>12.61124320537515</v>
+        <v>12.60132782194719</v>
       </c>
       <c r="H8" t="n">
-        <v>9.409441319805316</v>
+        <v>9.357960252012569</v>
       </c>
       <c r="I8" t="n">
-        <v>84.80247419715353</v>
+        <v>84.39172478414557</v>
       </c>
     </row>
     <row r="9">
@@ -64501,25 +64501,25 @@
         <v>49.01105600812134</v>
       </c>
       <c r="C9" t="n">
-        <v>48.24635238813424</v>
+        <v>48.24635238813422</v>
       </c>
       <c r="D9" t="n">
-        <v>29.29319925865107</v>
+        <v>29.29319925865106</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3842539580178879</v>
+        <v>0.3828298577791084</v>
       </c>
       <c r="G9" t="n">
-        <v>11.7435971631243</v>
+        <v>11.73343224359212</v>
       </c>
       <c r="H9" t="n">
-        <v>12.89725340350444</v>
+        <v>12.84934037104916</v>
       </c>
       <c r="I9" t="n">
-        <v>124.2564985770834</v>
+        <v>123.8308566473373</v>
       </c>
     </row>
     <row r="10">
@@ -64533,22 +64533,22 @@
         <v>29.75459136849363</v>
       </c>
       <c r="D10" t="n">
-        <v>23.53554004984084</v>
+        <v>23.53554004984083</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.283061402305847</v>
+        <v>0.2820829733772833</v>
       </c>
       <c r="G10" t="n">
-        <v>10.51196543109412</v>
+        <v>10.50407271386643</v>
       </c>
       <c r="H10" t="n">
-        <v>11.42006702941357</v>
+        <v>11.37936379157326</v>
       </c>
       <c r="I10" t="n">
-        <v>99.92251987843987</v>
+        <v>99.60393074551452</v>
       </c>
     </row>
     <row r="11">
@@ -64559,25 +64559,25 @@
         <v>62.21923488908034</v>
       </c>
       <c r="C11" t="n">
-        <v>61.94863909512524</v>
+        <v>61.94863909512526</v>
       </c>
       <c r="D11" t="n">
-        <v>47.18062148077626</v>
+        <v>47.18062148077627</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6079128248172149</v>
+        <v>0.6073833532137932</v>
       </c>
       <c r="G11" t="n">
-        <v>16.12822778626352</v>
+        <v>16.12389357168827</v>
       </c>
       <c r="H11" t="n">
-        <v>24.31281741677824</v>
+        <v>24.29224873225137</v>
       </c>
       <c r="I11" t="n">
-        <v>255.877437611801</v>
+        <v>255.6704007829146</v>
       </c>
     </row>
     <row r="12">
@@ -64597,16 +64597,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2996298150431658</v>
+        <v>0.2984955865817234</v>
       </c>
       <c r="G12" t="n">
-        <v>10.86102537455667</v>
+        <v>10.85282454305896</v>
       </c>
       <c r="H12" t="n">
-        <v>10.75526900220541</v>
+        <v>10.71375865325987</v>
       </c>
       <c r="I12" t="n">
-        <v>99.77943012865451</v>
+        <v>99.43239919854926</v>
       </c>
     </row>
     <row r="13">
@@ -64614,7 +64614,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>55.61399868905328</v>
+        <v>55.61399868905327</v>
       </c>
       <c r="C13" t="n">
         <v>45.92715697944202</v>
@@ -64626,16 +64626,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3908735011978303</v>
+        <v>0.3898807522417317</v>
       </c>
       <c r="G13" t="n">
-        <v>14.16943043448954</v>
+        <v>14.16221815744524</v>
       </c>
       <c r="H13" t="n">
-        <v>14.90910899678121</v>
+        <v>14.8713568745183</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2851981283194</v>
+        <v>122.9982031269259</v>
       </c>
     </row>
     <row r="14">
@@ -64655,16 +64655,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4201414604362371</v>
+        <v>0.4195777945196668</v>
       </c>
       <c r="G14" t="n">
-        <v>8.430619604247127</v>
+        <v>8.425891636215296</v>
       </c>
       <c r="H14" t="n">
-        <v>15.72985086344836</v>
+        <v>15.70851400953557</v>
       </c>
       <c r="I14" t="n">
-        <v>133.7090688896422</v>
+        <v>133.5422237599493</v>
       </c>
     </row>
     <row r="15">
@@ -64672,28 +64672,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.97789638681189</v>
+        <v>46.97789638681188</v>
       </c>
       <c r="C15" t="n">
         <v>50.33026397796599</v>
       </c>
       <c r="D15" t="n">
-        <v>24.21380911407706</v>
+        <v>24.21380911407705</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28668655300734</v>
+        <v>0.2859378084766271</v>
       </c>
       <c r="G15" t="n">
-        <v>11.15269524051321</v>
+        <v>11.14562583929868</v>
       </c>
       <c r="H15" t="n">
-        <v>11.91476841780683</v>
+        <v>11.8837425570474</v>
       </c>
       <c r="I15" t="n">
-        <v>133.9167031434493</v>
+        <v>133.5921266351948</v>
       </c>
     </row>
     <row r="16">
@@ -64701,10 +64701,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.92176618373928</v>
+        <v>58.92176618373929</v>
       </c>
       <c r="C16" t="n">
-        <v>33.37460064400998</v>
+        <v>33.37460064401</v>
       </c>
       <c r="D16" t="n">
         <v>30.21228552696875</v>
@@ -64713,16 +64713,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3918707633638669</v>
+        <v>0.3912286628154038</v>
       </c>
       <c r="G16" t="n">
-        <v>14.24523567910052</v>
+        <v>14.23962310233178</v>
       </c>
       <c r="H16" t="n">
-        <v>14.35161702739362</v>
+        <v>14.32756661685694</v>
       </c>
       <c r="I16" t="n">
-        <v>162.6881017722212</v>
+        <v>162.4265937704052</v>
       </c>
     </row>
     <row r="17">
@@ -64742,16 +64742,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4346358339981745</v>
+        <v>0.4341449152620613</v>
       </c>
       <c r="G17" t="n">
-        <v>10.68628316205603</v>
+        <v>10.68227088268306</v>
       </c>
       <c r="H17" t="n">
-        <v>17.45231670749082</v>
+        <v>17.43260536652708</v>
       </c>
       <c r="I17" t="n">
-        <v>131.7661643648639</v>
+        <v>131.6300422034026</v>
       </c>
     </row>
     <row r="18">
@@ -64759,28 +64759,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>63.77843628954197</v>
+        <v>63.77843628954196</v>
       </c>
       <c r="C18" t="n">
         <v>38.8305959427779</v>
       </c>
       <c r="D18" t="n">
-        <v>23.98447628747516</v>
+        <v>23.98447628747515</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3211213794633697</v>
+        <v>0.3204540022912128</v>
       </c>
       <c r="G18" t="n">
-        <v>7.534046842141221</v>
+        <v>7.528672202492272</v>
       </c>
       <c r="H18" t="n">
-        <v>12.797709377289</v>
+        <v>12.77174796584282</v>
       </c>
       <c r="I18" t="n">
-        <v>104.2663899431769</v>
+        <v>104.0759667729935</v>
       </c>
     </row>
     <row r="19">
@@ -64800,16 +64800,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3373729899068349</v>
+        <v>0.3365619192770676</v>
       </c>
       <c r="G19" t="n">
-        <v>18.30551318706549</v>
+        <v>18.29829372969674</v>
       </c>
       <c r="H19" t="n">
-        <v>14.492780613893</v>
+        <v>14.45738836772217</v>
       </c>
       <c r="I19" t="n">
-        <v>116.9305943938191</v>
+        <v>116.6710443897266</v>
       </c>
     </row>
     <row r="20">
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>56.3109148955121</v>
+        <v>56.31091489551209</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36932182689971</v>
+        <v>47.36932182689969</v>
       </c>
       <c r="D20" t="n">
-        <v>23.76927439509418</v>
+        <v>23.76927439509417</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3057984082180343</v>
+        <v>0.3047284105789108</v>
       </c>
       <c r="G20" t="n">
-        <v>16.46491456112323</v>
+        <v>16.45649943116041</v>
       </c>
       <c r="H20" t="n">
-        <v>10.96513950643825</v>
+        <v>10.92638218281869</v>
       </c>
       <c r="I20" t="n">
-        <v>101.2044650958371</v>
+        <v>100.8822004744826</v>
       </c>
     </row>
     <row r="21">
@@ -64846,7 +64846,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.84697751954215</v>
+        <v>66.84697751954214</v>
       </c>
       <c r="C21" t="n">
         <v>58.60565469032003</v>
@@ -64858,16 +64858,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4414237631421621</v>
+        <v>0.4403564040204141</v>
       </c>
       <c r="G21" t="n">
-        <v>16.76814009172703</v>
+        <v>16.7587575667763</v>
       </c>
       <c r="H21" t="n">
-        <v>17.18005280272357</v>
+        <v>17.13804278886222</v>
       </c>
       <c r="I21" t="n">
-        <v>136.6237025476243</v>
+        <v>136.3169173472324</v>
       </c>
     </row>
     <row r="22">
@@ -64887,16 +64887,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.249437417898683</v>
+        <v>0.2483657102579634</v>
       </c>
       <c r="G22" t="n">
-        <v>11.40428975552892</v>
+        <v>11.39570640016296</v>
       </c>
       <c r="H22" t="n">
-        <v>10.84421311881622</v>
+        <v>10.79674115514693</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3616062957137</v>
+        <v>101.9574365540754</v>
       </c>
     </row>
     <row r="23">
@@ -64904,28 +64904,28 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>50.54183834519752</v>
+        <v>50.54183834519753</v>
       </c>
       <c r="C23" t="n">
-        <v>53.62964520208474</v>
+        <v>53.62964520208475</v>
       </c>
       <c r="D23" t="n">
-        <v>24.60018388438149</v>
+        <v>24.6001838843815</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3694263171265261</v>
+        <v>0.3687358926669466</v>
       </c>
       <c r="G23" t="n">
-        <v>15.70327043684985</v>
+        <v>15.69767205579032</v>
       </c>
       <c r="H23" t="n">
-        <v>13.17942638047298</v>
+        <v>13.15448406912504</v>
       </c>
       <c r="I23" t="n">
-        <v>138.033486109317</v>
+        <v>137.7884778993884</v>
       </c>
     </row>
   </sheetData>

--- a/dmsan/newgen/scores/Uganda/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/Uganda/sys_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32770,28 +32770,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>47.47629305365037</v>
+        <v>47.47629305365041</v>
       </c>
       <c r="C4" t="n">
-        <v>35.12648835820291</v>
+        <v>35.12648835820296</v>
       </c>
       <c r="D4" t="n">
-        <v>20.68890749429919</v>
+        <v>20.68890749429924</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2633523916259884</v>
+        <v>0.2633523916259894</v>
       </c>
       <c r="G4" t="n">
-        <v>6.561102074897203</v>
+        <v>6.561102074897208</v>
       </c>
       <c r="H4" t="n">
-        <v>11.49815743131954</v>
+        <v>11.49815743131957</v>
       </c>
       <c r="I4" t="n">
-        <v>93.43830466064523</v>
+        <v>93.43830466064549</v>
       </c>
     </row>
     <row r="5">
@@ -32799,10 +32799,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.58232952271366</v>
+        <v>57.58232952271367</v>
       </c>
       <c r="C5" t="n">
-        <v>50.70700825300086</v>
+        <v>50.70700825300085</v>
       </c>
       <c r="D5" t="n">
         <v>40.48362278348858</v>
@@ -32834,7 +32834,7 @@
         <v>38.56221258078127</v>
       </c>
       <c r="D6" t="n">
-        <v>31.34606021839425</v>
+        <v>31.34606021839426</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -32857,10 +32857,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>48.80116975325629</v>
+        <v>48.8011697532563</v>
       </c>
       <c r="C7" t="n">
-        <v>35.79091863136994</v>
+        <v>35.79091863136995</v>
       </c>
       <c r="D7" t="n">
         <v>24.07250941253632</v>
@@ -32872,7 +32872,7 @@
         <v>0.3271750227521537</v>
       </c>
       <c r="G7" t="n">
-        <v>8.47274649566697</v>
+        <v>8.472746495666973</v>
       </c>
       <c r="H7" t="n">
         <v>11.86765087556325</v>
@@ -32901,7 +32901,7 @@
         <v>0.2106413898244863</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83869627472954</v>
+        <v>11.83869627472953</v>
       </c>
       <c r="H8" t="n">
         <v>9.096771340402727</v>
@@ -32915,28 +32915,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>49.01105600812134</v>
+        <v>49.01105600812129</v>
       </c>
       <c r="C9" t="n">
-        <v>48.24635238813422</v>
+        <v>48.24635238813418</v>
       </c>
       <c r="D9" t="n">
-        <v>29.29319925865106</v>
+        <v>29.29319925865099</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3578118475858322</v>
+        <v>0.3578118475858313</v>
       </c>
       <c r="G9" t="n">
         <v>10.96575315534195</v>
       </c>
       <c r="H9" t="n">
-        <v>12.61653942241138</v>
+        <v>12.61653942241136</v>
       </c>
       <c r="I9" t="n">
-        <v>122.873931988789</v>
+        <v>122.8739319887887</v>
       </c>
     </row>
     <row r="10">
@@ -32950,7 +32950,7 @@
         <v>29.75459136849363</v>
       </c>
       <c r="D10" t="n">
-        <v>23.53554004984083</v>
+        <v>23.53554004984085</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -32959,13 +32959,13 @@
         <v>0.2547914906359772</v>
       </c>
       <c r="G10" t="n">
-        <v>9.813945412578848</v>
+        <v>9.813945412578846</v>
       </c>
       <c r="H10" t="n">
         <v>11.12943647716116</v>
       </c>
       <c r="I10" t="n">
-        <v>98.09197290011234</v>
+        <v>98.09197290011235</v>
       </c>
     </row>
     <row r="11">
@@ -32979,22 +32979,22 @@
         <v>61.94863909512526</v>
       </c>
       <c r="D11" t="n">
-        <v>47.18062148077627</v>
+        <v>47.18062148077626</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5798667788421419</v>
+        <v>0.5798667788421417</v>
       </c>
       <c r="G11" t="n">
         <v>15.37721904767724</v>
       </c>
       <c r="H11" t="n">
-        <v>24.01014199845895</v>
+        <v>24.01014199845894</v>
       </c>
       <c r="I11" t="n">
-        <v>254.120256459107</v>
+        <v>254.1202564591069</v>
       </c>
     </row>
     <row r="12">
@@ -33002,13 +33002,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.73097239318235</v>
+        <v>43.73097239318234</v>
       </c>
       <c r="C12" t="n">
-        <v>31.01266676183698</v>
+        <v>31.01266676183695</v>
       </c>
       <c r="D12" t="n">
-        <v>20.97445202370486</v>
+        <v>20.97445202370485</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>45.92715697944202</v>
       </c>
       <c r="D13" t="n">
-        <v>29.73044266057614</v>
+        <v>29.73044266057613</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -33060,7 +33060,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.90527577487358</v>
+        <v>55.90527577487357</v>
       </c>
       <c r="C14" t="n">
         <v>28.09501702145944</v>
@@ -33072,13 +33072,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3920444005675718</v>
+        <v>0.3920444005675719</v>
       </c>
       <c r="G14" t="n">
-        <v>7.659174736781825</v>
+        <v>7.659174736781828</v>
       </c>
       <c r="H14" t="n">
-        <v>15.45749833095099</v>
+        <v>15.457498330951</v>
       </c>
       <c r="I14" t="n">
         <v>131.987773577538</v>
@@ -33089,28 +33089,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.97789638681188</v>
+        <v>46.97789638681192</v>
       </c>
       <c r="C15" t="n">
-        <v>50.33026397796599</v>
+        <v>50.33026397796602</v>
       </c>
       <c r="D15" t="n">
-        <v>24.21380911407705</v>
+        <v>24.2138091140771</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2599702255190625</v>
+        <v>0.259970225519063</v>
       </c>
       <c r="G15" t="n">
         <v>10.36440505634485</v>
       </c>
       <c r="H15" t="n">
-        <v>11.62621068198783</v>
+        <v>11.62621068198786</v>
       </c>
       <c r="I15" t="n">
-        <v>132.1741929457375</v>
+        <v>132.1741929457377</v>
       </c>
     </row>
     <row r="16">
@@ -33118,10 +33118,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.92176618373929</v>
+        <v>58.92176618373927</v>
       </c>
       <c r="C16" t="n">
-        <v>33.37460064401</v>
+        <v>33.37460064400999</v>
       </c>
       <c r="D16" t="n">
         <v>30.21228552696875</v>
@@ -33153,7 +33153,7 @@
         <v>34.97043691738742</v>
       </c>
       <c r="D17" t="n">
-        <v>30.07453361571378</v>
+        <v>30.07453361571379</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -33162,7 +33162,7 @@
         <v>0.4087773279369777</v>
       </c>
       <c r="G17" t="n">
-        <v>9.898770727140846</v>
+        <v>9.898770727140848</v>
       </c>
       <c r="H17" t="n">
         <v>17.19271934428573</v>
@@ -33176,28 +33176,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>63.77843628954196</v>
+        <v>63.77843628954194</v>
       </c>
       <c r="C18" t="n">
-        <v>38.8305959427779</v>
+        <v>38.83059594277785</v>
       </c>
       <c r="D18" t="n">
-        <v>23.98447628747515</v>
+        <v>23.98447628747509</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2943266974978745</v>
+        <v>0.2943266974978736</v>
       </c>
       <c r="G18" t="n">
-        <v>6.708274661271991</v>
+        <v>6.708274661271986</v>
       </c>
       <c r="H18" t="n">
-        <v>12.52469057984989</v>
+        <v>12.52469057984986</v>
       </c>
       <c r="I18" t="n">
-        <v>102.702548006999</v>
+        <v>102.7025480069988</v>
       </c>
     </row>
     <row r="19">
@@ -33208,7 +33208,7 @@
         <v>61.74065920881339</v>
       </c>
       <c r="C19" t="n">
-        <v>28.62818448433658</v>
+        <v>28.62818448433659</v>
       </c>
       <c r="D19" t="n">
         <v>27.0848819579951</v>
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>56.31091489551209</v>
+        <v>56.31091489551211</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36932182689969</v>
+        <v>47.36932182689972</v>
       </c>
       <c r="D20" t="n">
-        <v>23.76927439509417</v>
+        <v>23.76927439509421</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2765102794043693</v>
+        <v>0.2765102794043698</v>
       </c>
       <c r="G20" t="n">
         <v>15.62700818067419</v>
       </c>
       <c r="H20" t="n">
-        <v>10.67446554658142</v>
+        <v>10.67446554658144</v>
       </c>
       <c r="I20" t="n">
-        <v>99.97646438707638</v>
+        <v>99.97646438707656</v>
       </c>
     </row>
     <row r="21">
@@ -33263,13 +33263,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.84697751954214</v>
+        <v>66.84697751954215</v>
       </c>
       <c r="C21" t="n">
-        <v>58.60565469032003</v>
+        <v>58.60565469032002</v>
       </c>
       <c r="D21" t="n">
-        <v>35.13857989801407</v>
+        <v>35.13857989801408</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -33292,28 +33292,28 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>42.10846084434775</v>
+        <v>42.10846084434778</v>
       </c>
       <c r="C22" t="n">
-        <v>47.59030331997909</v>
+        <v>47.59030331997912</v>
       </c>
       <c r="D22" t="n">
-        <v>21.85166543009027</v>
+        <v>21.85166543009035</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2239501035635053</v>
+        <v>0.2239501035635062</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6428448152847</v>
+        <v>10.64284481528469</v>
       </c>
       <c r="H22" t="n">
-        <v>10.56342583306151</v>
+        <v>10.56342583306155</v>
       </c>
       <c r="I22" t="n">
-        <v>100.5596405234828</v>
+        <v>100.5596405234831</v>
       </c>
     </row>
     <row r="23">
@@ -33324,7 +33324,7 @@
         <v>50.54183834519753</v>
       </c>
       <c r="C23" t="n">
-        <v>53.62964520208475</v>
+        <v>53.62964520208477</v>
       </c>
       <c r="D23" t="n">
         <v>24.6001838843815</v>
@@ -64353,28 +64353,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>47.47629305365037</v>
+        <v>47.47629305365041</v>
       </c>
       <c r="C4" t="n">
-        <v>35.12648835820291</v>
+        <v>35.12648835820296</v>
       </c>
       <c r="D4" t="n">
-        <v>20.68890749429919</v>
+        <v>20.68890749429924</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2906675353727311</v>
+        <v>0.290667535372732</v>
       </c>
       <c r="G4" t="n">
-        <v>7.267901921115721</v>
+        <v>7.267901921115725</v>
       </c>
       <c r="H4" t="n">
-        <v>11.75335988775535</v>
+        <v>11.75335988775538</v>
       </c>
       <c r="I4" t="n">
-        <v>94.35138354114763</v>
+        <v>94.35138354114788</v>
       </c>
     </row>
     <row r="5">
@@ -64382,10 +64382,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.58232952271366</v>
+        <v>57.58232952271367</v>
       </c>
       <c r="C5" t="n">
-        <v>50.70700825300086</v>
+        <v>50.70700825300085</v>
       </c>
       <c r="D5" t="n">
         <v>40.48362278348858</v>
@@ -64417,7 +64417,7 @@
         <v>38.56221258078127</v>
       </c>
       <c r="D6" t="n">
-        <v>31.34606021839425</v>
+        <v>31.34606021839426</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -64440,10 +64440,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>48.80116975325629</v>
+        <v>48.8011697532563</v>
       </c>
       <c r="C7" t="n">
-        <v>35.79091863136994</v>
+        <v>35.79091863136995</v>
       </c>
       <c r="D7" t="n">
         <v>24.07250941253632</v>
@@ -64452,13 +64452,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3531065173162979</v>
+        <v>0.3531065173162981</v>
       </c>
       <c r="G7" t="n">
         <v>9.292000951164731</v>
       </c>
       <c r="H7" t="n">
-        <v>12.12517805467387</v>
+        <v>12.12517805467388</v>
       </c>
       <c r="I7" t="n">
         <v>131.6223814851291</v>
@@ -64484,7 +64484,7 @@
         <v>0.2377102357605783</v>
       </c>
       <c r="G8" t="n">
-        <v>12.60132782194719</v>
+        <v>12.60132782194718</v>
       </c>
       <c r="H8" t="n">
         <v>9.357960252012569</v>
@@ -64498,28 +64498,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>49.01105600812134</v>
+        <v>49.01105600812129</v>
       </c>
       <c r="C9" t="n">
-        <v>48.24635238813422</v>
+        <v>48.24635238813418</v>
       </c>
       <c r="D9" t="n">
-        <v>29.29319925865106</v>
+        <v>29.29319925865099</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3828298577791084</v>
+        <v>0.3828298577791076</v>
       </c>
       <c r="G9" t="n">
         <v>11.73343224359212</v>
       </c>
       <c r="H9" t="n">
-        <v>12.84934037104916</v>
+        <v>12.84934037104913</v>
       </c>
       <c r="I9" t="n">
-        <v>123.8308566473373</v>
+        <v>123.830856647337</v>
       </c>
     </row>
     <row r="10">
@@ -64533,22 +64533,22 @@
         <v>29.75459136849363</v>
       </c>
       <c r="D10" t="n">
-        <v>23.53554004984083</v>
+        <v>23.53554004984085</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2820829733772833</v>
+        <v>0.2820829733772834</v>
       </c>
       <c r="G10" t="n">
         <v>10.50407271386643</v>
       </c>
       <c r="H10" t="n">
-        <v>11.37936379157326</v>
+        <v>11.37936379157327</v>
       </c>
       <c r="I10" t="n">
-        <v>99.60393074551452</v>
+        <v>99.60393074551453</v>
       </c>
     </row>
     <row r="11">
@@ -64562,13 +64562,13 @@
         <v>61.94863909512526</v>
       </c>
       <c r="D11" t="n">
-        <v>47.18062148077627</v>
+        <v>47.18062148077626</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6073833532137932</v>
+        <v>0.6073833532137931</v>
       </c>
       <c r="G11" t="n">
         <v>16.12389357168827</v>
@@ -64577,7 +64577,7 @@
         <v>24.29224873225137</v>
       </c>
       <c r="I11" t="n">
-        <v>255.6704007829146</v>
+        <v>255.6704007829145</v>
       </c>
     </row>
     <row r="12">
@@ -64585,13 +64585,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.73097239318235</v>
+        <v>43.73097239318234</v>
       </c>
       <c r="C12" t="n">
-        <v>31.01266676183698</v>
+        <v>31.01266676183695</v>
       </c>
       <c r="D12" t="n">
-        <v>20.97445202370486</v>
+        <v>20.97445202370485</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -64600,7 +64600,7 @@
         <v>0.2984955865817234</v>
       </c>
       <c r="G12" t="n">
-        <v>10.85282454305896</v>
+        <v>10.85282454305897</v>
       </c>
       <c r="H12" t="n">
         <v>10.71375865325987</v>
@@ -64620,7 +64620,7 @@
         <v>45.92715697944202</v>
       </c>
       <c r="D13" t="n">
-        <v>29.73044266057614</v>
+        <v>29.73044266057613</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -64643,7 +64643,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.90527577487358</v>
+        <v>55.90527577487357</v>
       </c>
       <c r="C14" t="n">
         <v>28.09501702145944</v>
@@ -64655,16 +64655,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4195777945196668</v>
+        <v>0.4195777945196669</v>
       </c>
       <c r="G14" t="n">
-        <v>8.425891636215296</v>
+        <v>8.425891636215297</v>
       </c>
       <c r="H14" t="n">
-        <v>15.70851400953557</v>
+        <v>15.70851400953558</v>
       </c>
       <c r="I14" t="n">
-        <v>133.5422237599493</v>
+        <v>133.5422237599494</v>
       </c>
     </row>
     <row r="15">
@@ -64672,28 +64672,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.97789638681188</v>
+        <v>46.97789638681192</v>
       </c>
       <c r="C15" t="n">
-        <v>50.33026397796599</v>
+        <v>50.33026397796602</v>
       </c>
       <c r="D15" t="n">
-        <v>24.21380911407705</v>
+        <v>24.2138091140771</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2859378084766271</v>
+        <v>0.2859378084766276</v>
       </c>
       <c r="G15" t="n">
         <v>11.14562583929868</v>
       </c>
       <c r="H15" t="n">
-        <v>11.8837425570474</v>
+        <v>11.88374255704742</v>
       </c>
       <c r="I15" t="n">
-        <v>133.5921266351948</v>
+        <v>133.5921266351949</v>
       </c>
     </row>
     <row r="16">
@@ -64701,10 +64701,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.92176618373929</v>
+        <v>58.92176618373927</v>
       </c>
       <c r="C16" t="n">
-        <v>33.37460064401</v>
+        <v>33.37460064400999</v>
       </c>
       <c r="D16" t="n">
         <v>30.21228552696875</v>
@@ -64716,7 +64716,7 @@
         <v>0.3912286628154038</v>
       </c>
       <c r="G16" t="n">
-        <v>14.23962310233178</v>
+        <v>14.23962310233179</v>
       </c>
       <c r="H16" t="n">
         <v>14.32756661685694</v>
@@ -64736,7 +64736,7 @@
         <v>34.97043691738742</v>
       </c>
       <c r="D17" t="n">
-        <v>30.07453361571378</v>
+        <v>30.07453361571379</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -64759,28 +64759,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>63.77843628954196</v>
+        <v>63.77843628954194</v>
       </c>
       <c r="C18" t="n">
-        <v>38.8305959427779</v>
+        <v>38.83059594277785</v>
       </c>
       <c r="D18" t="n">
-        <v>23.98447628747515</v>
+        <v>23.98447628747509</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3204540022912128</v>
+        <v>0.320454002291212</v>
       </c>
       <c r="G18" t="n">
-        <v>7.528672202492272</v>
+        <v>7.528672202492267</v>
       </c>
       <c r="H18" t="n">
-        <v>12.77174796584282</v>
+        <v>12.77174796584279</v>
       </c>
       <c r="I18" t="n">
-        <v>104.0759667729935</v>
+        <v>104.0759667729933</v>
       </c>
     </row>
     <row r="19">
@@ -64791,7 +64791,7 @@
         <v>61.74065920881339</v>
       </c>
       <c r="C19" t="n">
-        <v>28.62818448433658</v>
+        <v>28.62818448433659</v>
       </c>
       <c r="D19" t="n">
         <v>27.0848819579951</v>
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>56.31091489551209</v>
+        <v>56.31091489551211</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36932182689969</v>
+        <v>47.36932182689972</v>
       </c>
       <c r="D20" t="n">
-        <v>23.76927439509417</v>
+        <v>23.76927439509421</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3047284105789108</v>
+        <v>0.3047284105789113</v>
       </c>
       <c r="G20" t="n">
-        <v>16.45649943116041</v>
+        <v>16.4564994311604</v>
       </c>
       <c r="H20" t="n">
-        <v>10.92638218281869</v>
+        <v>10.92638218281871</v>
       </c>
       <c r="I20" t="n">
-        <v>100.8822004744826</v>
+        <v>100.8822004744827</v>
       </c>
     </row>
     <row r="21">
@@ -64846,13 +64846,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.84697751954214</v>
+        <v>66.84697751954215</v>
       </c>
       <c r="C21" t="n">
-        <v>58.60565469032003</v>
+        <v>58.60565469032002</v>
       </c>
       <c r="D21" t="n">
-        <v>35.13857989801407</v>
+        <v>35.13857989801408</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -64875,28 +64875,28 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>42.10846084434775</v>
+        <v>42.10846084434778</v>
       </c>
       <c r="C22" t="n">
-        <v>47.59030331997909</v>
+        <v>47.59030331997912</v>
       </c>
       <c r="D22" t="n">
-        <v>21.85166543009027</v>
+        <v>21.85166543009035</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2483657102579634</v>
+        <v>0.2483657102579642</v>
       </c>
       <c r="G22" t="n">
-        <v>11.39570640016296</v>
+        <v>11.39570640016295</v>
       </c>
       <c r="H22" t="n">
-        <v>10.79674115514693</v>
+        <v>10.79674115514697</v>
       </c>
       <c r="I22" t="n">
-        <v>101.9574365540754</v>
+        <v>101.9574365540757</v>
       </c>
     </row>
     <row r="23">
@@ -64907,7 +64907,7 @@
         <v>50.54183834519753</v>
       </c>
       <c r="C23" t="n">
-        <v>53.62964520208475</v>
+        <v>53.62964520208477</v>
       </c>
       <c r="D23" t="n">
         <v>24.6001838843815</v>
